--- a/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.9111664419195871</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.372837000855418</v>
+        <v>2.372837000855417</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.160081331958797</v>
@@ -649,7 +649,7 @@
         <v>-0.2975124530864338</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5295406312250832</v>
+        <v>0.529540631225083</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1024486902937364</v>
+        <v>-0.0876980314279774</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.720649319732205</v>
+        <v>-0.7673239706899828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.102241954400042</v>
+        <v>-3.174673609226676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.080247172854712</v>
+        <v>-1.950355000766546</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06618877982193391</v>
+        <v>-0.1762558197473089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3036023692098556</v>
+        <v>-0.2604058992491985</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7394458699963156</v>
+        <v>-0.7184608310477245</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.34260186346032</v>
+        <v>-0.3639251859017418</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.011161837229621</v>
+        <v>3.831313064678135</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.187141201898155</v>
+        <v>3.993511742736993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.292637889002506</v>
+        <v>1.208740199444209</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.987620783271723</v>
+        <v>7.534871980549937</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.892087238497759</v>
+        <v>4.149516958522097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.791323493631344</v>
+        <v>2.745864606443277</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7469019424224619</v>
+        <v>0.7111084326633043</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.84024823358171</v>
+        <v>3.227414891172515</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.7698346489642491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.522765686766814</v>
+        <v>-4.522765686766815</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1057566972628319</v>
@@ -749,7 +749,7 @@
         <v>-0.2517358391411916</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.5321366950458538</v>
+        <v>-0.5321366950458539</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.425801672086533</v>
+        <v>-1.320406978151351</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.194211873510743</v>
+        <v>-3.011341490254172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.814206675840574</v>
+        <v>-2.408553742859187</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.879717300794137</v>
+        <v>-8.68735300339551</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4959541785728597</v>
+        <v>-0.4547847683336985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5231640874663278</v>
+        <v>-0.5200558712415499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6696119311594988</v>
+        <v>-0.6318497101203604</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7483612521472256</v>
+        <v>-0.752883548026958</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.003708455404011</v>
+        <v>1.890743060731176</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.681290666744571</v>
+        <v>1.515089431496964</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.979876008168617</v>
+        <v>1.216397282537989</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.092373177895883</v>
+        <v>-0.845276899954347</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.307166099688388</v>
+        <v>1.176525673553849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4606754035945332</v>
+        <v>0.4088676471340706</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5610978183593665</v>
+        <v>0.6968168425605823</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1464909224391546</v>
+        <v>-0.1221110223845287</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2672673982242788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.406364051078492</v>
+        <v>2.406364051078495</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.113672105371922</v>
@@ -849,7 +849,7 @@
         <v>0.07434830745772929</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6858723438960471</v>
+        <v>0.6858723438960478</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.868741751348352</v>
+        <v>-1.875000540828293</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5027163026154706</v>
+        <v>-0.7598218283066469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.66511813709687</v>
+        <v>-1.74042396698931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05378032582040086</v>
+        <v>0.1266115706837255</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.361696922935536</v>
+        <v>-0.3490290424254464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08379154076921012</v>
+        <v>-0.1111931316559041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3676955640435662</v>
+        <v>-0.3797811679585055</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06499885650722202</v>
+        <v>-0.04525082940927652</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.823094506347496</v>
+        <v>2.93124591561229</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.795200085467392</v>
+        <v>4.645665903169071</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.32261503949076</v>
+        <v>2.252686484683615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.45867172681587</v>
+        <v>4.651913609090816</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9490338206743634</v>
+        <v>1.030829652596265</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.157592268582857</v>
+        <v>1.143660197068501</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8964620895272479</v>
+        <v>0.9053621958577769</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.755246075084143</v>
+        <v>1.870257473804702</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.372632975551225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.7925481778631713</v>
+        <v>-0.7925481778631684</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.571748119047127</v>
@@ -949,7 +949,7 @@
         <v>-0.05151509528300959</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.07813632369226235</v>
+        <v>-0.0781363236922621</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2363082202776463</v>
+        <v>0.03205174662997825</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.303227405668226</v>
+        <v>-0.0757834625430987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.140002747894019</v>
+        <v>-3.138645595805698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.580251337087174</v>
+        <v>-3.651419659114694</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.052216272821417</v>
+        <v>-0.0219261001227367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01860233031073445</v>
+        <v>-0.02982408704943952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3614556821102838</v>
+        <v>-0.3745104287449672</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3040176201220107</v>
+        <v>-0.3127470227720686</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.252216368305377</v>
+        <v>6.396512595368351</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.816733795002834</v>
+        <v>6.413842685214063</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.388981291026361</v>
+        <v>2.645428600740672</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.985378409056795</v>
+        <v>1.918329893851441</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.525679719221345</v>
+        <v>1.599187480555691</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.384989795950008</v>
+        <v>1.208897663323185</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4136501656099787</v>
+        <v>0.4521838421950772</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2560255746100449</v>
+        <v>0.2364308252177114</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.224405446291961</v>
+        <v>-5.185555413070154</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.560758122454448</v>
+        <v>-3.282325893437563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3552248651200741</v>
+        <v>0.316219271085742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.917687308484772</v>
+        <v>-8.263993078276616</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4692314280975063</v>
+        <v>-0.4603392965232271</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2751156932541105</v>
+        <v>-0.2529006188597728</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03119883348132318</v>
+        <v>-0.002195723106102936</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4411324636076889</v>
+        <v>-0.4531052342656271</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.541172663043136</v>
+        <v>3.122035645441715</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.578619320386582</v>
+        <v>5.445364346367257</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.777032632022074</v>
+        <v>8.474747038743546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.9639108790343295</v>
+        <v>-1.520488036542463</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3769491711503682</v>
+        <v>0.484610543973952</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.523044878992545</v>
+        <v>0.6168256658592929</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.335758715309831</v>
+        <v>1.203993216481808</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.06834874333603162</v>
+        <v>-0.1049599784882587</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.7635071912222804</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.204118932593368</v>
+        <v>1.204118932593362</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04046905702141343</v>
@@ -1149,7 +1149,7 @@
         <v>0.09912371545919163</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.08975527095562912</v>
+        <v>0.08975527095562869</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.134931675302838</v>
+        <v>-4.37007428470032</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.349972095146315</v>
+        <v>-8.321566216018134</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.342334116117331</v>
+        <v>-3.409839712348098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.371598909364196</v>
+        <v>-2.492600158881183</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3639174219311762</v>
+        <v>-0.3924944572340492</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4699927839491148</v>
+        <v>-0.4765564060928434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3460667194764679</v>
+        <v>-0.3511589146090456</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1528633658526309</v>
+        <v>-0.1588268924363968</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.357059128441518</v>
+        <v>4.473726181115283</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.661536958528406</v>
+        <v>3.041461947723179</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.022424594507063</v>
+        <v>4.522444811460955</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.731210201889985</v>
+        <v>5.609168759591022</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7151902136165035</v>
+        <v>0.7332736531593259</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3017734185013659</v>
+        <v>0.2855136103128806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9568998693790374</v>
+        <v>0.8027516923683341</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4124202179449038</v>
+        <v>0.4932753984931246</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>6.737977190481731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.851829794850449</v>
+        <v>4.851829794850443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07325131232199704</v>
@@ -1249,7 +1249,7 @@
         <v>0.9107139045732492</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.18346789622014</v>
+        <v>0.1834678962201398</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.070978259803963</v>
+        <v>-4.851406870017638</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.797685345999377</v>
+        <v>-2.923408367881759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.853936189511326</v>
+        <v>2.249603023953155</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4213342311300411</v>
+        <v>-0.1985588375250064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3390937790562915</v>
+        <v>-0.3290417960480151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1462842587407278</v>
+        <v>-0.1475079957965885</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1593529267811666</v>
+        <v>0.2100936750107165</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.01107027193388843</v>
+        <v>-0.008255834944588536</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.616817196903815</v>
+        <v>6.058668363517864</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.69026943816887</v>
+        <v>10.82076328791588</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.57693070719058</v>
+        <v>12.19664616996278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.04477159793371</v>
+        <v>9.943774960615928</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7988150754216167</v>
+        <v>0.675736510208414</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.932106339712012</v>
+        <v>0.9329306032203603</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.20643907602717</v>
+        <v>2.27712347795384</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4417816932129611</v>
+        <v>0.4282848369567251</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>1.350781388306628</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5770428705190456</v>
+        <v>0.5770428705190483</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2536068235289765</v>
@@ -1349,7 +1349,7 @@
         <v>0.2432449208828328</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.05313227085584698</v>
+        <v>0.05313227085584725</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2452842964671383</v>
+        <v>0.1278361607659346</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4162275340094144</v>
+        <v>0.3478801954477203</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2135802709215586</v>
+        <v>0.2606029501800697</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.6998997351510647</v>
+        <v>-0.8276765229555703</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0459820838714304</v>
+        <v>0.006619817292416587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04074360947408762</v>
+        <v>0.04417034066355812</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03032504030621002</v>
+        <v>0.04495292756807556</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06111612518338385</v>
+        <v>-0.07260153199895068</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.462723225475883</v>
+        <v>2.364663929729412</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.12178323716568</v>
+        <v>3.085307461858394</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.597203051472694</v>
+        <v>2.643563862729976</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.894607058781073</v>
+        <v>2.035631393041496</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5602440546645797</v>
+        <v>0.5251819407486161</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4585139298409908</v>
+        <v>0.4730331282402401</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5095752603829646</v>
+        <v>0.536566272794891</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1878073398636191</v>
+        <v>0.2018657476024575</v>
       </c>
     </row>
     <row r="28">
